--- a/NformTester/NformTester/Keywordscripts/700.30.80_ActionHistorywithUserDefinedFileLocationandName.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.80_ActionHistorywithUserDefinedFileLocationandName.xlsx
@@ -4427,7 +4427,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4970,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/700.30.80_ActionHistorywithUserDefinedFileLocationandName.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.80_ActionHistorywithUserDefinedFileLocationandName.xlsx
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8728" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8734" uniqueCount="999">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4415,20 +4415,24 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"700306002_Export_Action testing.csv"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\export\700306002_Export_Action testing.csv"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7003080_Export_Action testing.csv"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003080_Export_Action testing.csv"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4968,10 +4972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4981,7 +4985,7 @@
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5063,24 +5067,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>879</v>
+        <v>998</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>946</v>
-      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -5097,24 +5095,30 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>880</v>
+        <v>943</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>879</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>949</v>
       </c>
@@ -5124,11 +5128,15 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -5149,7 +5157,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5167,13 +5175,13 @@
         <v>882</v>
       </c>
       <c r="B7" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>881</v>
+        <v>952</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -5186,7 +5194,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" s="2" t="s">
         <v>953</v>
       </c>
@@ -5194,31 +5202,21 @@
       <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>957</v>
-      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="15">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>958</v>
       </c>
@@ -5226,21 +5224,31 @@
       <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="D9" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" s="2" t="s">
         <v>884</v>
       </c>
@@ -5250,20 +5258,14 @@
       <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>960</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="D10" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -5277,15 +5279,15 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>883</v>
+        <v>960</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="13"/>
@@ -5307,11 +5309,11 @@
       <c r="D12" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>411</v>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>2</v>
@@ -5335,22 +5337,20 @@
       <c r="D13" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="E13" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="12"/>
     </row>
@@ -5369,13 +5369,13 @@
         <v>415</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5399,12 +5399,14 @@
         <v>415</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>962</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -5424,10 +5426,10 @@
         <v>883</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>390</v>
+        <v>253</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>2</v>
@@ -5455,7 +5457,7 @@
         <v>421</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -5480,17 +5482,15 @@
         <v>883</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>962</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -5513,7 +5513,7 @@
         <v>468</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>4</v>
@@ -5545,13 +5545,13 @@
         <v>468</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5575,13 +5575,13 @@
         <v>468</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>964</v>
+        <v>4</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -5605,12 +5605,14 @@
         <v>468</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>17</v>
+        <v>469</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>964</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>962</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5624,11 +5626,11 @@
       <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>883</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>17</v>
@@ -5653,11 +5655,11 @@
       <c r="D24" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>411</v>
+      <c r="E24" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
@@ -5670,64 +5672,64 @@
       <c r="M24" s="11"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:14" ht="15">
+    <row r="25" spans="1:14">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="4">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="D25" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="11"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="15">
       <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>883</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D27" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5747,7 +5749,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>2</v>
@@ -5764,21 +5766,19 @@
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>966</v>
-      </c>
+      <c r="E29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -5797,12 +5797,14 @@
         <v>411</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>966</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5817,21 +5819,17 @@
       <c r="D31" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>501</v>
+      <c r="E31" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>502</v>
+        <v>413</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="4">
-        <v>2</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>967</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -5849,15 +5847,17 @@
         <v>501</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>113</v>
+        <v>502</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="I32" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>967</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -5878,10 +5878,10 @@
         <v>113</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5901,12 +5901,14 @@
         <v>501</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>504</v>
+        <v>113</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>969</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5925,7 +5927,7 @@
         <v>501</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>100</v>
+        <v>504</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>2</v>
@@ -5945,8 +5947,8 @@
       <c r="D36" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>411</v>
+      <c r="E36" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>100</v>
@@ -5967,15 +5969,17 @@
         <v>36</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>883</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -5984,15 +5988,19 @@
       <c r="M37" s="4"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="3:14" ht="15">
+    <row r="38" spans="3:14">
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="D38" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -6002,22 +6010,16 @@
       <c r="M38" s="4"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" ht="15">
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D39" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -6037,7 +6039,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>2</v>
@@ -6058,17 +6060,15 @@
         <v>883</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>967</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -6087,12 +6087,14 @@
         <v>695</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>967</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -6108,10 +6110,10 @@
         <v>883</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>2</v>
@@ -6135,7 +6137,7 @@
         <v>704</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>17</v>
+        <v>706</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>2</v>
@@ -6156,10 +6158,10 @@
         <v>883</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>2</v>
@@ -6177,57 +6179,57 @@
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
+        <v>883</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="3:14" ht="15">
+    <row r="47" spans="3:14">
       <c r="C47" s="4">
         <v>46</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" ht="15">
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D48" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6247,7 +6249,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>2</v>
@@ -6271,7 +6273,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>2</v>
@@ -6289,22 +6291,20 @@
         <v>50</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="J51" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>883</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -6315,7 +6315,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>875</v>
@@ -6323,7 +6323,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>973</v>
@@ -6341,25 +6341,21 @@
         <v>52</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>883</v>
+        <v>995</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J53" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6377,14 +6373,20 @@
         <v>822</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="J54" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -6401,7 +6403,7 @@
         <v>822</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>2</v>
@@ -6425,7 +6427,7 @@
         <v>822</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>2</v>
@@ -6449,7 +6451,7 @@
         <v>822</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>482</v>
+        <v>816</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>2</v>
@@ -6476,17 +6478,11 @@
         <v>482</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="J58" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -6503,7 +6499,7 @@
         <v>822</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>7</v>
@@ -6533,14 +6529,20 @@
         <v>822</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>818</v>
+        <v>481</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="J60" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -6557,7 +6559,7 @@
         <v>822</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>2</v>
@@ -6575,15 +6577,17 @@
         <v>61</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="F62" s="4">
-        <v>2</v>
-      </c>
-      <c r="G62" s="4"/>
+        <v>822</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6597,20 +6601,16 @@
         <v>62</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>978</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -6629,12 +6629,14 @@
         <v>822</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>824</v>
+        <v>708</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>978</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -6653,14 +6655,12 @@
         <v>822</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>462</v>
+        <v>824</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>993</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -6679,12 +6679,14 @@
         <v>822</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>813</v>
+        <v>462</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>993</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -6700,17 +6702,15 @@
         <v>883</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>925</v>
+        <v>822</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>990</v>
+        <v>813</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>992</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -6735,7 +6735,7 @@
         <v>991</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6755,12 +6755,14 @@
         <v>925</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="4"/>
+        <v>991</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>997</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -6776,10 +6778,10 @@
         <v>883</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>822</v>
+        <v>925</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>17</v>
+        <v>994</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>2</v>
@@ -6797,15 +6799,17 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>822</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6819,17 +6823,15 @@
         <v>71</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6843,22 +6845,20 @@
         <v>72</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>997</v>
+        <v>883</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="J73" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -6869,7 +6869,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>875</v>
@@ -6877,7 +6877,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>973</v>
@@ -6895,7 +6895,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>880</v>
+        <v>995</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>875</v>
@@ -6903,13 +6903,13 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="J75" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -6929,10 +6929,10 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J76" s="4" t="b">
         <v>1</v>
@@ -6955,10 +6955,10 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J77" s="4" t="b">
         <v>1</v>
@@ -6981,10 +6981,10 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J78" s="4" t="b">
         <v>1</v>
@@ -7007,10 +7007,10 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J79" s="4" t="b">
         <v>1</v>
@@ -7033,10 +7033,10 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="J80" s="4" t="b">
         <v>1</v>
@@ -7059,10 +7059,10 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="J81" s="4" t="b">
         <v>1</v>
@@ -7085,10 +7085,10 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J82" s="4" t="b">
         <v>1</v>
@@ -7098,42 +7098,44 @@
       <c r="M82" s="4"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="3:14" ht="15">
+    <row r="83" spans="3:14">
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="E83" s="4"/>
+      <c r="D83" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>875</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="H83" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="J83" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="3:14">
+    <row r="84" spans="3:14" ht="15">
       <c r="C84" s="4">
         <v>83</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="D84" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -7145,13 +7147,13 @@
         <v>84</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>987</v>
+        <v>883</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>2</v>
@@ -7172,25 +7174,23 @@
         <v>987</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>988</v>
+        <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>696</v>
+        <v>79</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="I86" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="3:14" ht="14.25">
+    <row r="87" spans="3:14">
       <c r="C87" s="4">
         <v>86</v>
       </c>
@@ -7201,12 +7201,14 @@
         <v>988</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>254</v>
+        <v>696</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>989</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -7214,23 +7216,23 @@
       <c r="M87" s="4"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="3:14">
+    <row r="88" spans="3:14" ht="14.25">
       <c r="C88" s="4">
         <v>87</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>703</v>
+      <c r="E88" s="13" t="s">
+        <v>988</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H88" s="13"/>
+      <c r="H88" s="21"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -7245,17 +7247,17 @@
       <c r="D89" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>988</v>
+      <c r="E89" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -7267,19 +7269,19 @@
         <v>89</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>19</v>
+        <v>987</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>988</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -7296,10 +7298,10 @@
       <c r="E91" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" s="11" t="s">
+      <c r="F91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="4"/>
@@ -7317,18 +7319,16 @@
       <c r="D92" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>966</v>
-      </c>
+      <c r="E92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -7347,12 +7347,14 @@
         <v>411</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>254</v>
+        <v>414</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>966</v>
+      </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -7371,7 +7373,7 @@
         <v>411</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>2</v>
@@ -7384,9 +7386,47 @@
       <c r="M94" s="4"/>
       <c r="N94" s="6"/>
     </row>
+    <row r="95" spans="3:14">
+      <c r="C95" s="4">
+        <v>94</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" spans="3:14">
+      <c r="C96" s="4">
+        <v>95</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N94">
+  <conditionalFormatting sqref="N2:N95">
     <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7395,16 +7435,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D84 D90:D94 D48:D82 D39:D46 D10:D24 D26:D37 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D85 D91:D96 D49:D83 D40:D47 D11:D25 D27:D38 D3:D5">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87:G94 G2:G85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G88:G95 G2:G86">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F66 F70:F94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F71:F95 F2 F4:F67">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E96">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.80_ActionHistorywithUserDefinedFileLocationandName.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.80_ActionHistorywithUserDefinedFileLocationandName.xlsx
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8734" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8734" uniqueCount="1000">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4326,10 +4326,6 @@
     <t>"testaction"</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}{Down}"</t>
   </si>
   <si>
@@ -4432,6 +4428,14 @@
   </si>
   <si>
     <t>"C:\Nform\user\export\7003080_Export_Action testing.csv"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4471,6 +4475,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4974,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5070,10 +5075,10 @@
         <v>880</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -5856,7 +5861,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>967</v>
+        <v>998</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5881,7 +5886,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5907,7 +5912,7 @@
         <v>55</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -6015,7 +6020,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -6093,7 +6098,7 @@
         <v>55</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>967</v>
+        <v>999</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -6225,7 +6230,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -6315,7 +6320,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>875</v>
@@ -6323,10 +6328,10 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>973</v>
       </c>
       <c r="J52" s="4" t="b">
         <v>0</v>
@@ -6341,7 +6346,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>875</v>
@@ -6349,10 +6354,10 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J53" s="4" t="b">
         <v>0</v>
@@ -6379,10 +6384,10 @@
         <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>975</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>976</v>
       </c>
       <c r="J54" s="4" t="b">
         <v>1</v>
@@ -6505,10 +6510,10 @@
         <v>7</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J59" s="4" t="b">
         <v>1</v>
@@ -6535,10 +6540,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J60" s="4" t="b">
         <v>1</v>
@@ -6635,7 +6640,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6685,7 +6690,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6729,13 +6734,13 @@
         <v>925</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>992</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6755,13 +6760,13 @@
         <v>925</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>991</v>
-      </c>
       <c r="H69" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -6781,7 +6786,7 @@
         <v>925</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>2</v>
@@ -6869,7 +6874,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>875</v>
@@ -6877,10 +6882,10 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>973</v>
       </c>
       <c r="J74" s="4" t="b">
         <v>0</v>
@@ -6895,7 +6900,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>875</v>
@@ -6903,10 +6908,10 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J75" s="4" t="b">
         <v>0</v>
@@ -6929,10 +6934,10 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J76" s="4" t="b">
         <v>1</v>
@@ -6955,10 +6960,10 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J77" s="4" t="b">
         <v>1</v>
@@ -6981,10 +6986,10 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J78" s="4" t="b">
         <v>1</v>
@@ -7007,10 +7012,10 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J79" s="4" t="b">
         <v>1</v>
@@ -7033,10 +7038,10 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J80" s="4" t="b">
         <v>1</v>
@@ -7059,10 +7064,10 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J81" s="4" t="b">
         <v>1</v>
@@ -7085,10 +7090,10 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J82" s="4" t="b">
         <v>1</v>
@@ -7111,10 +7116,10 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J83" s="4" t="b">
         <v>1</v>
@@ -7129,7 +7134,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -7171,7 +7176,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>19</v>
@@ -7195,10 +7200,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>987</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>988</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>696</v>
@@ -7207,7 +7212,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -7221,10 +7226,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>987</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>988</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>254</v>
@@ -7245,7 +7250,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>703</v>
@@ -7269,10 +7274,10 @@
         <v>89</v>
       </c>
       <c r="D90" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>987</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>988</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>100</v>
@@ -7418,10 +7423,10 @@
         <v>880</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
